--- a/Suivi - projet Parc Auto.xlsx
+++ b/Suivi - projet Parc Auto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felod\Desktop\Python\Projet Parc Automobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457FF83B-21F6-4625-BA03-FFE28032566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AC780F-ABBC-4161-BE0C-AE065337840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>Elisabeth</t>
   </si>
@@ -350,6 +350,93 @@
   </si>
   <si>
     <t>Page concernée</t>
+  </si>
+  <si>
+    <t>Question1.html</t>
+  </si>
+  <si>
+    <t>france.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FIRST QUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>à traduire en français</t>
+    </r>
+  </si>
+  <si>
+    <t>Toutes les pages html</t>
+  </si>
+  <si>
+    <t>Question à mettre dans une taille de police plus grande</t>
+  </si>
+  <si>
+    <t>Sur la question, remplacer "PAR FRANCE" par "EN FRANCE"</t>
+  </si>
+  <si>
+    <t>Sur la question, remplacer "PAR REGION" par "EN REGION" ou "POUR LA REGION"</t>
+  </si>
+  <si>
+    <t>toutes les pages regions.html</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine.html</t>
+  </si>
+  <si>
+    <t>faute d'orthographe NOVELLE-AQUITAINE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Provence-Alpes côtes d'Azur </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>renvoit une page d'erreur</t>
+    </r>
+  </si>
+  <si>
+    <t>toutes les pages communes.html</t>
+  </si>
+  <si>
+    <t>Sur la question, remplacer "PAR COMMUNE" par "POUR LA COMMUNE"</t>
+  </si>
+  <si>
+    <t>Saint%20Germain%20en%20Laye.html</t>
+  </si>
+  <si>
+    <t>mauvais graphique pour l'année 2011, c'est celui de l'Occitanie qui est affiché</t>
   </si>
 </sst>
 </file>
@@ -550,26 +637,11 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,10 +653,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1499,10 +1586,10 @@
       </c>
     </row>
     <row r="3" spans="6:17" ht="34.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>492235</v>
       </c>
     </row>
@@ -1516,17 +1603,17 @@
       <c r="J4" s="16"/>
     </row>
     <row r="7" spans="6:17" x14ac:dyDescent="0.4">
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="6:17" x14ac:dyDescent="0.4">
       <c r="I8" s="15" t="s">
@@ -1534,16 +1621,16 @@
       </c>
     </row>
     <row r="9" spans="6:17" x14ac:dyDescent="0.4">
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="11" spans="6:17" x14ac:dyDescent="0.4">
       <c r="I11" s="13" t="s">
@@ -1554,40 +1641,40 @@
       </c>
     </row>
     <row r="12" spans="6:17" x14ac:dyDescent="0.4">
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="6:17" x14ac:dyDescent="0.4">
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
       <c r="O13" s="13">
         <v>1972</v>
       </c>
     </row>
     <row r="14" spans="6:17" x14ac:dyDescent="0.4">
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="13">
         <v>963</v>
       </c>
@@ -1598,25 +1685,25 @@
       </c>
     </row>
     <row r="17" spans="4:15" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>489286</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="4:15" ht="13" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D26" s="12" t="s">
@@ -1627,7 +1714,7 @@
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1643,19 +1730,19 @@
     </row>
     <row r="36" spans="6:18" ht="13" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="6:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="6:18" ht="13" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="6:18" ht="13" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="6:18" ht="22.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
-      <c r="P40" s="26" t="s">
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="P40" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1669,7 +1756,7 @@
       </c>
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="J43" s="19">
+      <c r="J43" s="17">
         <v>489214</v>
       </c>
       <c r="P43" s="13" t="s">
@@ -1678,10 +1765,10 @@
     </row>
     <row r="45" spans="6:18" ht="13" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="6:18" ht="38.700000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="P46" s="25" t="s">
+      <c r="P46" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="27" t="s">
+      <c r="R46" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2054,16 +2141,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309625FF-2FB6-436E-8E83-E2354361BF72}">
-  <dimension ref="B3:C8"/>
+  <dimension ref="B3:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.52734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.05859375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.8203125" style="1"/>
   </cols>
@@ -2077,35 +2164,31 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>52</v>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>52</v>
+      <c r="B5" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -2113,10 +2196,91 @@
         <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Suivi - projet Parc Auto.xlsx
+++ b/Suivi - projet Parc Auto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felod\Desktop\Python\Projet Parc Automobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AC780F-ABBC-4161-BE0C-AE065337840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F991417-3E89-4C9D-BE57-1B412234E03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>Elisabeth</t>
   </si>
@@ -219,6 +219,159 @@
       </rPr>
       <t xml:space="preserve"> à supprimer car non filtres non fonctionnels</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greta-78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à remplacer par une image bouton (icône du Greta des Yvelines), à disposer en haut à gauche ? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROJECT AUTOPARC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à remplacer par </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Projet Parc Automobile en France, à placer au milieu ? </t>
+    </r>
+  </si>
+  <si>
+    <t>Remarques / Suggestions</t>
+  </si>
+  <si>
+    <t>Compléter les définitions sur Diesel, Essence et Electrique et hydrogène</t>
+  </si>
+  <si>
+    <t>Page concernée</t>
+  </si>
+  <si>
+    <t>Question1.html</t>
+  </si>
+  <si>
+    <t>france.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FIRST QUESTION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>à traduire en français</t>
+    </r>
+  </si>
+  <si>
+    <t>Toutes les pages html</t>
+  </si>
+  <si>
+    <t>Question à mettre dans une taille de police plus grande</t>
+  </si>
+  <si>
+    <t>Sur la question, remplacer "PAR FRANCE" par "EN FRANCE"</t>
+  </si>
+  <si>
+    <t>Sur la question, remplacer "PAR REGION" par "EN REGION" ou "POUR LA REGION"</t>
+  </si>
+  <si>
+    <t>toutes les pages regions.html</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine.html</t>
+  </si>
+  <si>
+    <t>faute d'orthographe NOVELLE-AQUITAINE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Provence-Alpes côtes d'Azur </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>renvoit une page d'erreur</t>
+    </r>
+  </si>
+  <si>
+    <t>toutes les pages communes.html</t>
+  </si>
+  <si>
+    <t>Sur la question, remplacer "PAR COMMUNE" par "POUR LA COMMUNE"</t>
+  </si>
+  <si>
+    <t>Saint%20Germain%20en%20Laye.html</t>
+  </si>
+  <si>
+    <t>mauvais graphique pour l'année 2011, c'est celui de l'Occitanie qui est affiché</t>
   </si>
   <si>
     <r>
@@ -261,7 +414,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">à remplacer </t>
+      <t xml:space="preserve">à remplacer par </t>
     </r>
     <r>
       <rPr>
@@ -286,157 +439,76 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Greta-78</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à remplacer par une image bouton (icône du Greta des Yvelines), à disposer en haut à gauche ? </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PROJECT AUTOPARC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à remplacer par </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Projet Parc Automobile en France, à placer au milieu ? </t>
-    </r>
-  </si>
-  <si>
-    <t>Remarques / Suggestions</t>
-  </si>
-  <si>
-    <t>Compléter les définitions sur Diesel, Essence et Electrique et hydrogène</t>
-  </si>
-  <si>
-    <t>Page concernée</t>
-  </si>
-  <si>
-    <t>Question1.html</t>
-  </si>
-  <si>
-    <t>france.html</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FIRST QUESTION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>à traduire en français</t>
-    </r>
-  </si>
-  <si>
-    <t>Toutes les pages html</t>
-  </si>
-  <si>
-    <t>Question à mettre dans une taille de police plus grande</t>
-  </si>
-  <si>
-    <t>Sur la question, remplacer "PAR FRANCE" par "EN FRANCE"</t>
-  </si>
-  <si>
-    <t>Sur la question, remplacer "PAR REGION" par "EN REGION" ou "POUR LA REGION"</t>
-  </si>
-  <si>
-    <t>toutes les pages regions.html</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine.html</t>
-  </si>
-  <si>
-    <t>faute d'orthographe NOVELLE-AQUITAINE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Provence-Alpes côtes d'Azur </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>renvoit une page d'erreur</t>
-    </r>
-  </si>
-  <si>
-    <t>toutes les pages communes.html</t>
-  </si>
-  <si>
-    <t>Sur la question, remplacer "PAR COMMUNE" par "POUR LA COMMUNE"</t>
-  </si>
-  <si>
-    <t>Saint%20Germain%20en%20Laye.html</t>
-  </si>
-  <si>
-    <t>mauvais graphique pour l'année 2011, c'est celui de l'Occitanie qui est affiché</t>
+    <t>Revu par Elisabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>le titre TYPE DE VEHICULE à compléter TYPE DE VEHICULE SELON LE CARBURANT</t>
+  </si>
+  <si>
+    <t>le titre L'EVOLUTION DE LA PROPORTION  à compléter TYPE DE VEHICULE SELON LE CARBURANT</t>
+  </si>
+  <si>
+    <t>Question2.html</t>
+  </si>
+  <si>
+    <t>Toutes les régions pour la question 3</t>
+  </si>
+  <si>
+    <t>Ne pas afficher l'histogramme avec tous les carburants ?</t>
+  </si>
+  <si>
+    <t>Mettre les légendes carburant avec une taille de police plus grande</t>
+  </si>
+  <si>
+    <t>AuvergneQ3.html</t>
+  </si>
+  <si>
+    <t>Remplacer EN RÉGION, DÉPARTEMENT, COMMUNE par EN REGION AUVERGNE RHÔNE ALPES</t>
+  </si>
+  <si>
+    <t>Centre-Val%20de%20LoireQ3.html</t>
+  </si>
+  <si>
+    <t>CorseQ3.html</t>
+  </si>
+  <si>
+    <t>Question titre à changer (c'est la question 2 qui est affichée actuellement)</t>
+  </si>
+  <si>
+    <t>Grand%20EstQ3.html</t>
+  </si>
+  <si>
+    <t>Hauts-de-FranceQ3.html</t>
+  </si>
+  <si>
+    <t>Île-de-FranceQ3.html</t>
+  </si>
+  <si>
+    <t>Supprimer "COMPARAISON ENTRE 2011 ET 2021", à remplacer par VARIATION DE 2011 A 2021</t>
+  </si>
+  <si>
+    <t>NormandieQ3.html</t>
+  </si>
+  <si>
+    <t>OccitanieQ3.html</t>
+  </si>
+  <si>
+    <t>Nouvelle-AquitaineQ3.html</t>
+  </si>
+  <si>
+    <t>Question titre à changer (c'est la question 1 qui est affichée actuellement)</t>
+  </si>
+  <si>
+    <t>Pays%20de%20la%20LoireQ3.html</t>
+  </si>
+  <si>
+    <t>Question3.html</t>
   </si>
 </sst>
 </file>
@@ -508,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -594,12 +666,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -673,6 +760,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2141,143 +2261,402 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309625FF-2FB6-436E-8E83-E2354361BF72}">
-  <dimension ref="B3:C18"/>
+  <dimension ref="B3:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.52734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.05859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.8203125" style="1"/>
+    <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.76171875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="22.46875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.8203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:4" s="30" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B7" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="2:4" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
+      <c r="C9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="2:4" ht="26.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="2:4" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B18" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="2:4" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B20" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="37"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="37"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="37"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="37"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="37"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="37"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="37"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="37"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="37"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="37"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="37"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="37"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="37"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="37"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
